--- a/python_work/20211119-py/score.xlsx
+++ b/python_work/20211119-py/score.xlsx
@@ -493,6 +493,11 @@
       <c r="H2" t="n">
         <v>80</v>
       </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -519,6 +524,11 @@
       <c r="H3" t="n">
         <v>77</v>
       </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -545,6 +555,11 @@
       <c r="H4" t="n">
         <v>48</v>
       </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -571,6 +586,11 @@
       <c r="H5" t="n">
         <v>81</v>
       </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -597,6 +617,11 @@
       <c r="H6" t="n">
         <v>81</v>
       </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -623,6 +648,11 @@
       <c r="H7" t="n">
         <v>43</v>
       </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -649,6 +679,11 @@
       <c r="H8" t="n">
         <v>84</v>
       </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -675,6 +710,11 @@
       <c r="H9" t="n">
         <v>73</v>
       </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -701,6 +741,11 @@
       <c r="H10" t="n">
         <v>98</v>
       </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -726,6 +771,11 @@
       </c>
       <c r="H11" t="n">
         <v>92</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
       </c>
     </row>
   </sheetData>
